--- a/data/pca/factorExposure/factorExposure_2015-04-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02342442206213091</v>
+        <v>0.01159963767714067</v>
       </c>
       <c r="C2">
-        <v>0.02714217940153801</v>
+        <v>-0.05405369427020343</v>
       </c>
       <c r="D2">
-        <v>0.1292330690313164</v>
+        <v>-0.1257328048172814</v>
       </c>
       <c r="E2">
-        <v>0.00757190904177889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02627477469693242</v>
+      </c>
+      <c r="F2">
+        <v>-0.01528409810775439</v>
+      </c>
+      <c r="G2">
+        <v>-0.06669658941663442</v>
+      </c>
+      <c r="H2">
+        <v>0.1281322277627743</v>
+      </c>
+      <c r="I2">
+        <v>-0.0596247854338415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04242948970764332</v>
+        <v>0.01726533464770412</v>
       </c>
       <c r="C4">
-        <v>0.06815212957163622</v>
+        <v>-0.1054861237709047</v>
       </c>
       <c r="D4">
-        <v>0.1041030052155152</v>
+        <v>-0.125972054930675</v>
       </c>
       <c r="E4">
-        <v>0.09007072327684472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01804588765954717</v>
+      </c>
+      <c r="F4">
+        <v>-0.09499834197869718</v>
+      </c>
+      <c r="G4">
+        <v>0.01153927844113424</v>
+      </c>
+      <c r="H4">
+        <v>0.04878027346422881</v>
+      </c>
+      <c r="I4">
+        <v>0.0889374191079758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02536366578252069</v>
+        <v>0.02970638732980505</v>
       </c>
       <c r="C6">
-        <v>0.01391147590132366</v>
+        <v>-0.03753619631465679</v>
       </c>
       <c r="D6">
-        <v>0.1259482806044253</v>
+        <v>-0.1173759202601245</v>
       </c>
       <c r="E6">
-        <v>0.05274786727254641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.0665338083096067</v>
+      </c>
+      <c r="F6">
+        <v>-0.04204840563674656</v>
+      </c>
+      <c r="G6">
+        <v>0.03059965770062692</v>
+      </c>
+      <c r="H6">
+        <v>0.02503567989944167</v>
+      </c>
+      <c r="I6">
+        <v>0.006853548153384496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.001388128051495001</v>
+        <v>0.0062623787425032</v>
       </c>
       <c r="C7">
-        <v>0.02455001030981846</v>
+        <v>-0.03915857955805813</v>
       </c>
       <c r="D7">
-        <v>0.1081793274983356</v>
+        <v>-0.09516949047119284</v>
       </c>
       <c r="E7">
-        <v>0.01618208237504528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05075554504265052</v>
+      </c>
+      <c r="F7">
+        <v>-0.002550885467923184</v>
+      </c>
+      <c r="G7">
+        <v>0.06410910269735869</v>
+      </c>
+      <c r="H7">
+        <v>0.05701074848741783</v>
+      </c>
+      <c r="I7">
+        <v>0.05440277157765205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.001060712348602679</v>
+        <v>-0.007192498534652686</v>
       </c>
       <c r="C8">
-        <v>0.02723913013130133</v>
+        <v>-0.03717865958984002</v>
       </c>
       <c r="D8">
-        <v>0.08568392821229512</v>
+        <v>-0.07261178590568192</v>
       </c>
       <c r="E8">
-        <v>0.03634383509651219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03884995292728163</v>
+      </c>
+      <c r="F8">
+        <v>-0.04242572655416191</v>
+      </c>
+      <c r="G8">
+        <v>-0.04307229651910462</v>
+      </c>
+      <c r="H8">
+        <v>0.04311499773972732</v>
+      </c>
+      <c r="I8">
+        <v>0.02696864634227074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03259052547489449</v>
+        <v>0.01219297453666932</v>
       </c>
       <c r="C9">
-        <v>0.05976309874131171</v>
+        <v>-0.08710501029244928</v>
       </c>
       <c r="D9">
-        <v>0.1100910656559826</v>
+        <v>-0.1096117996857885</v>
       </c>
       <c r="E9">
-        <v>0.07084279353122795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01657536146298385</v>
+      </c>
+      <c r="F9">
+        <v>-0.0635638411081231</v>
+      </c>
+      <c r="G9">
+        <v>0.0387166293775698</v>
+      </c>
+      <c r="H9">
+        <v>0.04910483869457575</v>
+      </c>
+      <c r="I9">
+        <v>0.04884536718905561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1752462374739553</v>
+        <v>0.239859789900726</v>
       </c>
       <c r="C10">
-        <v>-0.170560172660753</v>
+        <v>0.08940024948531852</v>
       </c>
       <c r="D10">
-        <v>-0.01014917682551128</v>
+        <v>0.005692816316284707</v>
       </c>
       <c r="E10">
-        <v>0.04855359862426436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01405505321029481</v>
+      </c>
+      <c r="F10">
+        <v>-0.04764103721922384</v>
+      </c>
+      <c r="G10">
+        <v>-0.013615246644814</v>
+      </c>
+      <c r="H10">
+        <v>-0.00806597407836822</v>
+      </c>
+      <c r="I10">
+        <v>-0.01759210480618193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01855731730799536</v>
+        <v>0.009837302202202809</v>
       </c>
       <c r="C11">
-        <v>0.04177842876155637</v>
+        <v>-0.05859118777592149</v>
       </c>
       <c r="D11">
-        <v>0.04161852024655387</v>
+        <v>-0.03927255817252492</v>
       </c>
       <c r="E11">
-        <v>-0.01546504024806112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02264330864132594</v>
+      </c>
+      <c r="F11">
+        <v>0.01578797886658005</v>
+      </c>
+      <c r="G11">
+        <v>0.03527567327886105</v>
+      </c>
+      <c r="H11">
+        <v>0.02895527663470539</v>
+      </c>
+      <c r="I11">
+        <v>0.0401515473884675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01723236337608941</v>
+        <v>0.009362161257924705</v>
       </c>
       <c r="C12">
-        <v>0.04276858878145495</v>
+        <v>-0.05109942394013388</v>
       </c>
       <c r="D12">
-        <v>0.05354581125896254</v>
+        <v>-0.04447081176103712</v>
       </c>
       <c r="E12">
-        <v>-0.007605611883049149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0167746642288826</v>
+      </c>
+      <c r="F12">
+        <v>0.01866525614191091</v>
+      </c>
+      <c r="G12">
+        <v>0.05716907696833543</v>
+      </c>
+      <c r="H12">
+        <v>0.04096049680454048</v>
+      </c>
+      <c r="I12">
+        <v>0.0138052772686569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.005475483556584245</v>
+        <v>-0.0001613134431470087</v>
       </c>
       <c r="C13">
-        <v>0.02528301754636329</v>
+        <v>-0.05593613951394948</v>
       </c>
       <c r="D13">
-        <v>0.1290830746108246</v>
+        <v>-0.1584993029655993</v>
       </c>
       <c r="E13">
-        <v>0.04309410831296039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03265047459567438</v>
+      </c>
+      <c r="F13">
+        <v>-0.0291281680336106</v>
+      </c>
+      <c r="G13">
+        <v>0.03123155161033149</v>
+      </c>
+      <c r="H13">
+        <v>0.1080508940351612</v>
+      </c>
+      <c r="I13">
+        <v>-0.05000174824881358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.00453313392376952</v>
+        <v>0.002398068112808293</v>
       </c>
       <c r="C14">
-        <v>0.01899749504998819</v>
+        <v>-0.03325702257991421</v>
       </c>
       <c r="D14">
-        <v>0.08476147653956327</v>
+        <v>-0.09430836602874772</v>
       </c>
       <c r="E14">
-        <v>0.01621557870012647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05687846568329865</v>
+      </c>
+      <c r="F14">
+        <v>-0.02008432904992908</v>
+      </c>
+      <c r="G14">
+        <v>0.06839404308423885</v>
+      </c>
+      <c r="H14">
+        <v>0.13287284396895</v>
+      </c>
+      <c r="I14">
+        <v>0.01999959768759082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002882715210997362</v>
+        <v>-0.005550503374544555</v>
       </c>
       <c r="C15">
-        <v>0.01034504686701314</v>
+        <v>-0.0275937680525607</v>
       </c>
       <c r="D15">
-        <v>0.03585889680035481</v>
+        <v>-0.0576818323620492</v>
       </c>
       <c r="E15">
-        <v>-0.003328090659039393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01893852551613248</v>
+      </c>
+      <c r="F15">
+        <v>-0.002880803825189029</v>
+      </c>
+      <c r="G15">
+        <v>0.01083643594629224</v>
+      </c>
+      <c r="H15">
+        <v>0.05585039455204329</v>
+      </c>
+      <c r="I15">
+        <v>0.02988766059437448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01725218917252666</v>
+        <v>0.009453582402476469</v>
       </c>
       <c r="C16">
-        <v>0.03831646767635439</v>
+        <v>-0.05137483482996384</v>
       </c>
       <c r="D16">
-        <v>0.0468714134005905</v>
+        <v>-0.04104359255324484</v>
       </c>
       <c r="E16">
-        <v>-0.006222444209033414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0234054146437638</v>
+      </c>
+      <c r="F16">
+        <v>0.01054632721850247</v>
+      </c>
+      <c r="G16">
+        <v>0.04332834683638023</v>
+      </c>
+      <c r="H16">
+        <v>0.02414544733512252</v>
+      </c>
+      <c r="I16">
+        <v>0.0251269793140081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.001212882823022713</v>
+        <v>-0.003243938779904275</v>
       </c>
       <c r="C19">
-        <v>0.02052402603625687</v>
+        <v>-0.01614594764599662</v>
       </c>
       <c r="D19">
-        <v>0.07589999797984831</v>
+        <v>-0.05149441178621943</v>
       </c>
       <c r="E19">
-        <v>0.02675350560092608</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.007183107251648694</v>
+      </c>
+      <c r="F19">
+        <v>-0.01115904713172446</v>
+      </c>
+      <c r="G19">
+        <v>0.01007719086396197</v>
+      </c>
+      <c r="H19">
+        <v>0.0475286290772484</v>
+      </c>
+      <c r="I19">
+        <v>-0.005508699323444902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.003129426862568973</v>
+        <v>0.004442501608476073</v>
       </c>
       <c r="C20">
-        <v>0.02451819747774877</v>
+        <v>-0.04174783073230014</v>
       </c>
       <c r="D20">
-        <v>0.07592778524889178</v>
+        <v>-0.08470133364968176</v>
       </c>
       <c r="E20">
-        <v>0.03722269428436315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02611263014410586</v>
+      </c>
+      <c r="F20">
+        <v>-0.02328318266089723</v>
+      </c>
+      <c r="G20">
+        <v>0.04305854031845512</v>
+      </c>
+      <c r="H20">
+        <v>0.0375040564197555</v>
+      </c>
+      <c r="I20">
+        <v>0.05192052056803304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.005114922658158113</v>
+        <v>0.003403682976680313</v>
       </c>
       <c r="C21">
-        <v>0.03089101057960211</v>
+        <v>-0.04812290701056147</v>
       </c>
       <c r="D21">
-        <v>0.1377729768132909</v>
+        <v>-0.1241631845836405</v>
       </c>
       <c r="E21">
-        <v>0.08197815745171258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03387676159231215</v>
+      </c>
+      <c r="F21">
+        <v>-0.08218779603067849</v>
+      </c>
+      <c r="G21">
+        <v>0.06907931899312239</v>
+      </c>
+      <c r="H21">
+        <v>0.1905917190477433</v>
+      </c>
+      <c r="I21">
+        <v>-0.03548912217708208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001463634665284284</v>
+        <v>-0.0139433845332968</v>
       </c>
       <c r="C22">
-        <v>0.06947700081496833</v>
+        <v>-0.09000599340708805</v>
       </c>
       <c r="D22">
-        <v>0.2999223454984671</v>
+        <v>-0.270977952453978</v>
       </c>
       <c r="E22">
-        <v>0.04142474505632161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06613057469684162</v>
+      </c>
+      <c r="F22">
+        <v>-0.01621746609363271</v>
+      </c>
+      <c r="G22">
+        <v>-0.5273446677472746</v>
+      </c>
+      <c r="H22">
+        <v>-0.1669724317987824</v>
+      </c>
+      <c r="I22">
+        <v>-0.04230716584998296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.00179982129329888</v>
+        <v>-0.01077612996962905</v>
       </c>
       <c r="C23">
-        <v>0.0698444520007586</v>
+        <v>-0.09177613795047451</v>
       </c>
       <c r="D23">
-        <v>0.2991129824035733</v>
+        <v>-0.2734735255085065</v>
       </c>
       <c r="E23">
-        <v>0.04175866897988936</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.06119009998175479</v>
+      </c>
+      <c r="F23">
+        <v>-0.01932677875858646</v>
+      </c>
+      <c r="G23">
+        <v>-0.5107261563353942</v>
+      </c>
+      <c r="H23">
+        <v>-0.1580688863532412</v>
+      </c>
+      <c r="I23">
+        <v>-0.04204360354271974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02329964042469654</v>
+        <v>0.009862024974175107</v>
       </c>
       <c r="C24">
-        <v>0.05793107591301309</v>
+        <v>-0.06758565318974842</v>
       </c>
       <c r="D24">
-        <v>0.05513948780193739</v>
+        <v>-0.04415254850597121</v>
       </c>
       <c r="E24">
-        <v>-0.005942062843592769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.03054219583026022</v>
+      </c>
+      <c r="F24">
+        <v>0.009705330620242435</v>
+      </c>
+      <c r="G24">
+        <v>0.04454369523894269</v>
+      </c>
+      <c r="H24">
+        <v>0.05129100788729572</v>
+      </c>
+      <c r="I24">
+        <v>0.03783926507602968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02380218578530124</v>
+        <v>0.01390527414810213</v>
       </c>
       <c r="C25">
-        <v>0.05000757873115953</v>
+        <v>-0.0625044182018664</v>
       </c>
       <c r="D25">
-        <v>0.05320168684273034</v>
+        <v>-0.04709753958641167</v>
       </c>
       <c r="E25">
-        <v>0.0004591419352903972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.0161664595411796</v>
+      </c>
+      <c r="F25">
+        <v>0.008228453554775101</v>
+      </c>
+      <c r="G25">
+        <v>0.03432198718798224</v>
+      </c>
+      <c r="H25">
+        <v>0.02182673914079816</v>
+      </c>
+      <c r="I25">
+        <v>0.02414759033032467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.009829377589850585</v>
+        <v>0.01720318296354573</v>
       </c>
       <c r="C26">
-        <v>0.01495105765151646</v>
+        <v>-0.02879932420950714</v>
       </c>
       <c r="D26">
-        <v>0.0727818816249428</v>
+        <v>-0.06428060088935336</v>
       </c>
       <c r="E26">
-        <v>0.0286092812894136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04113821148525579</v>
+      </c>
+      <c r="F26">
+        <v>-0.04118851279537319</v>
+      </c>
+      <c r="G26">
+        <v>0.04369003231867926</v>
+      </c>
+      <c r="H26">
+        <v>0.09280054786629677</v>
+      </c>
+      <c r="I26">
+        <v>0.02362447796201075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2605544307707375</v>
+        <v>0.318314585000829</v>
       </c>
       <c r="C28">
-        <v>-0.1913872582193081</v>
+        <v>0.08616894147829478</v>
       </c>
       <c r="D28">
-        <v>0.007224045793540636</v>
+        <v>0.02377983199310052</v>
       </c>
       <c r="E28">
-        <v>0.04394648151018367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04928909658248234</v>
+      </c>
+      <c r="F28">
+        <v>-0.04543073476748019</v>
+      </c>
+      <c r="G28">
+        <v>-0.05581725577858019</v>
+      </c>
+      <c r="H28">
+        <v>0.0244929180151757</v>
+      </c>
+      <c r="I28">
+        <v>0.008836701063232871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0005044692512030583</v>
+        <v>0.001259637983017231</v>
       </c>
       <c r="C29">
-        <v>0.02272581995189118</v>
+        <v>-0.03903210481125315</v>
       </c>
       <c r="D29">
-        <v>0.08222494163752024</v>
+        <v>-0.09725669131846794</v>
       </c>
       <c r="E29">
-        <v>0.02655517931021916</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0640861602786367</v>
+      </c>
+      <c r="F29">
+        <v>-0.0228817691529326</v>
+      </c>
+      <c r="G29">
+        <v>0.09306160411192561</v>
+      </c>
+      <c r="H29">
+        <v>0.1469397186798243</v>
+      </c>
+      <c r="I29">
+        <v>0.02196523652902172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02454992890347577</v>
+        <v>0.01271302793232594</v>
       </c>
       <c r="C30">
-        <v>0.06719425076771619</v>
+        <v>-0.09332461275722087</v>
       </c>
       <c r="D30">
-        <v>0.1491727187714022</v>
+        <v>-0.1324978387354443</v>
       </c>
       <c r="E30">
-        <v>0.02937827769476145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05898302502117538</v>
+      </c>
+      <c r="F30">
+        <v>-0.0148032155548012</v>
+      </c>
+      <c r="G30">
+        <v>0.00968667231827899</v>
+      </c>
+      <c r="H30">
+        <v>0.03657168785348239</v>
+      </c>
+      <c r="I30">
+        <v>0.06035128767031173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03647458113783503</v>
+        <v>0.007860039679881555</v>
       </c>
       <c r="C31">
-        <v>0.08436653567814589</v>
+        <v>-0.09496878993297285</v>
       </c>
       <c r="D31">
-        <v>0.05688368276396342</v>
+        <v>-0.03757305852761704</v>
       </c>
       <c r="E31">
-        <v>0.01262982160261763</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02020328873410129</v>
+      </c>
+      <c r="F31">
+        <v>-0.01306887983838796</v>
+      </c>
+      <c r="G31">
+        <v>0.0178572797231481</v>
+      </c>
+      <c r="H31">
+        <v>0.03743488389204361</v>
+      </c>
+      <c r="I31">
+        <v>0.02057970276841069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01462866762057858</v>
+        <v>0.01069531509218311</v>
       </c>
       <c r="C32">
-        <v>0.03791104509116275</v>
+        <v>-0.05154795615422059</v>
       </c>
       <c r="D32">
-        <v>0.07786063506738303</v>
+        <v>-0.08525545098814089</v>
       </c>
       <c r="E32">
-        <v>0.04800982045040821</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.003797046459059798</v>
+      </c>
+      <c r="F32">
+        <v>-0.04494163836564856</v>
+      </c>
+      <c r="G32">
+        <v>0.02366111252289408</v>
+      </c>
+      <c r="H32">
+        <v>0.06273789599270593</v>
+      </c>
+      <c r="I32">
+        <v>-0.007255827054017498</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.006273216099622645</v>
+        <v>0.00466963152503046</v>
       </c>
       <c r="C33">
-        <v>0.04097226331996914</v>
+        <v>-0.05996175962950063</v>
       </c>
       <c r="D33">
-        <v>0.1196771415806323</v>
+        <v>-0.1169577093686723</v>
       </c>
       <c r="E33">
-        <v>0.04003401792860789</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03165125740091488</v>
+      </c>
+      <c r="F33">
+        <v>-0.02525831616610693</v>
+      </c>
+      <c r="G33">
+        <v>0.02714949481664536</v>
+      </c>
+      <c r="H33">
+        <v>0.0516979510241497</v>
+      </c>
+      <c r="I33">
+        <v>0.02210878704920409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02084830586996879</v>
+        <v>0.007445714155410484</v>
       </c>
       <c r="C34">
-        <v>0.05939880454859288</v>
+        <v>-0.0621146821530786</v>
       </c>
       <c r="D34">
-        <v>0.04963212925032648</v>
+        <v>-0.0249090699316503</v>
       </c>
       <c r="E34">
-        <v>-0.0446622923870509</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02850957236285294</v>
+      </c>
+      <c r="F34">
+        <v>0.04270989627996308</v>
+      </c>
+      <c r="G34">
+        <v>0.03524047390569399</v>
+      </c>
+      <c r="H34">
+        <v>0.03040773556905592</v>
+      </c>
+      <c r="I34">
+        <v>0.01372980012226719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002945406717972865</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01216579945293073</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03270448503209764</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.007045235110692538</v>
+      </c>
+      <c r="F35">
+        <v>-0.01434360583668094</v>
+      </c>
+      <c r="G35">
+        <v>0.03817068447289668</v>
+      </c>
+      <c r="H35">
+        <v>0.05419960965168913</v>
+      </c>
+      <c r="I35">
+        <v>0.02023746110603823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.005970480049428379</v>
+        <v>0.01130990672745878</v>
       </c>
       <c r="C36">
-        <v>0.007639140155804066</v>
+        <v>-0.02313465952159038</v>
       </c>
       <c r="D36">
-        <v>0.07459228219039024</v>
+        <v>-0.07243965319890271</v>
       </c>
       <c r="E36">
-        <v>0.0474248796189168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.03173910312516322</v>
+      </c>
+      <c r="F36">
+        <v>-0.04572435983261475</v>
+      </c>
+      <c r="G36">
+        <v>0.02887673117443709</v>
+      </c>
+      <c r="H36">
+        <v>0.06200784103820507</v>
+      </c>
+      <c r="I36">
+        <v>0.02071029025608074</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.00596909649124714</v>
+        <v>0.01048110312897647</v>
       </c>
       <c r="C38">
-        <v>0.00778096740871106</v>
+        <v>-0.02630801429817963</v>
       </c>
       <c r="D38">
-        <v>0.07720128212872471</v>
+        <v>-0.08373656422266663</v>
       </c>
       <c r="E38">
-        <v>0.003412267207219487</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.008590003830077202</v>
+      </c>
+      <c r="F38">
+        <v>0.001531192900171901</v>
+      </c>
+      <c r="G38">
+        <v>0.002569794064286069</v>
+      </c>
+      <c r="H38">
+        <v>0.06471002513847178</v>
+      </c>
+      <c r="I38">
+        <v>0.05389108163597882</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01616495585982284</v>
+        <v>0.004143733293110109</v>
       </c>
       <c r="C39">
-        <v>0.05995646902910726</v>
+        <v>-0.0798903087355808</v>
       </c>
       <c r="D39">
-        <v>0.1006987143226955</v>
+        <v>-0.08590565622863329</v>
       </c>
       <c r="E39">
-        <v>-0.007038905062059984</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05344837073721333</v>
+      </c>
+      <c r="F39">
+        <v>0.01384586534600941</v>
+      </c>
+      <c r="G39">
+        <v>0.06720102149162922</v>
+      </c>
+      <c r="H39">
+        <v>0.07424046769188088</v>
+      </c>
+      <c r="I39">
+        <v>0.04495139962293638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01848350128100648</v>
+        <v>0.01283861689178656</v>
       </c>
       <c r="C40">
-        <v>0.02219289881671269</v>
+        <v>-0.04074675731645903</v>
       </c>
       <c r="D40">
-        <v>0.1080325734286285</v>
+        <v>-0.09120902307870314</v>
       </c>
       <c r="E40">
-        <v>-0.0129537800390659</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04470188490144552</v>
+      </c>
+      <c r="F40">
+        <v>0.02844772058144013</v>
+      </c>
+      <c r="G40">
+        <v>-0.007694303760307004</v>
+      </c>
+      <c r="H40">
+        <v>0.1175068671752911</v>
+      </c>
+      <c r="I40">
+        <v>-0.01558857854591929</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.009573864572361189</v>
+        <v>0.01495431168523024</v>
       </c>
       <c r="C41">
-        <v>0.004560958396941779</v>
+        <v>-0.02036372630673852</v>
       </c>
       <c r="D41">
-        <v>0.03442690650522368</v>
+        <v>-0.04201924869426751</v>
       </c>
       <c r="E41">
-        <v>0.02243235858425412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.005857776421117403</v>
+      </c>
+      <c r="F41">
+        <v>-0.021878284633805</v>
+      </c>
+      <c r="G41">
+        <v>0.01623875127167621</v>
+      </c>
+      <c r="H41">
+        <v>0.04277144564772722</v>
+      </c>
+      <c r="I41">
+        <v>0.01817847751142425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.0004818674893083471</v>
+        <v>0.00756572314805513</v>
       </c>
       <c r="C43">
-        <v>0.004080450091299309</v>
+        <v>-0.0164174165028151</v>
       </c>
       <c r="D43">
-        <v>0.05093806876424226</v>
+        <v>-0.05177741063781937</v>
       </c>
       <c r="E43">
-        <v>0.01832842423490791</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01099109304457346</v>
+      </c>
+      <c r="F43">
+        <v>-0.02028979261541219</v>
+      </c>
+      <c r="G43">
+        <v>0.02211000226447808</v>
+      </c>
+      <c r="H43">
+        <v>0.05144034152082646</v>
+      </c>
+      <c r="I43">
+        <v>0.0383101635080844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02081641973831046</v>
+        <v>0.011872146011313</v>
       </c>
       <c r="C44">
-        <v>0.02345946028156309</v>
+        <v>-0.04825425368842242</v>
       </c>
       <c r="D44">
-        <v>0.0866696197993342</v>
+        <v>-0.09786205968855459</v>
       </c>
       <c r="E44">
-        <v>0.04658802838409507</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03862859784795339</v>
+      </c>
+      <c r="F44">
+        <v>-0.03005325149316837</v>
+      </c>
+      <c r="G44">
+        <v>0.000739655052972023</v>
+      </c>
+      <c r="H44">
+        <v>0.06698684254032707</v>
+      </c>
+      <c r="I44">
+        <v>0.03841142831483507</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.006431280295890189</v>
+        <v>-0.001226391610204445</v>
       </c>
       <c r="C46">
-        <v>0.03115938593147829</v>
+        <v>-0.04370745366881985</v>
       </c>
       <c r="D46">
-        <v>0.07557113161542942</v>
+        <v>-0.06998553155322133</v>
       </c>
       <c r="E46">
-        <v>0.01781810250527597</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04616905900370792</v>
+      </c>
+      <c r="F46">
+        <v>-0.02397378418287836</v>
+      </c>
+      <c r="G46">
+        <v>0.05369301162068084</v>
+      </c>
+      <c r="H46">
+        <v>0.1186770412541624</v>
+      </c>
+      <c r="I46">
+        <v>0.04773892070891977</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.07738444829774538</v>
+        <v>0.03080708971416845</v>
       </c>
       <c r="C47">
-        <v>0.1071885876249673</v>
+        <v>-0.1287674166603262</v>
       </c>
       <c r="D47">
-        <v>0.04714531259084292</v>
+        <v>-0.02194060571101054</v>
       </c>
       <c r="E47">
-        <v>0.01302928230216966</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.00871013863339393</v>
+      </c>
+      <c r="F47">
+        <v>0.005399413362164394</v>
+      </c>
+      <c r="G47">
+        <v>0.05668838114744475</v>
+      </c>
+      <c r="H47">
+        <v>0.0178138180501422</v>
+      </c>
+      <c r="I47">
+        <v>0.02422852324211388</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.009214826073757287</v>
+        <v>0.01486660442903749</v>
       </c>
       <c r="C48">
-        <v>0.01781394583164485</v>
+        <v>-0.03450592717260069</v>
       </c>
       <c r="D48">
-        <v>0.06949133682971242</v>
+        <v>-0.07495669832701708</v>
       </c>
       <c r="E48">
-        <v>0.04700052762387065</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02271639851623559</v>
+      </c>
+      <c r="F48">
+        <v>-0.05117826548672517</v>
+      </c>
+      <c r="G48">
+        <v>0.04466680622866463</v>
+      </c>
+      <c r="H48">
+        <v>0.09820598535383195</v>
+      </c>
+      <c r="I48">
+        <v>0.04536104818394984</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03266176071041816</v>
+        <v>0.01188768625608624</v>
       </c>
       <c r="C50">
-        <v>0.05814566683866988</v>
+        <v>-0.07663187496306892</v>
       </c>
       <c r="D50">
-        <v>0.05440675808196514</v>
+        <v>-0.047420613461289</v>
       </c>
       <c r="E50">
-        <v>0.004999901977639393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01537225429076008</v>
+      </c>
+      <c r="F50">
+        <v>-0.006552122396468403</v>
+      </c>
+      <c r="G50">
+        <v>0.004876071950630059</v>
+      </c>
+      <c r="H50">
+        <v>0.02479967573069815</v>
+      </c>
+      <c r="I50">
+        <v>0.02653335894349675</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001139812961540795</v>
+        <v>-0.001252331294890742</v>
       </c>
       <c r="C51">
-        <v>0.005683637832916493</v>
+        <v>-0.01673762397958256</v>
       </c>
       <c r="D51">
-        <v>0.05484811923990602</v>
+        <v>-0.05503272977463763</v>
       </c>
       <c r="E51">
-        <v>0.01847217265486869</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03957618347352265</v>
+      </c>
+      <c r="F51">
+        <v>-0.03374102248731158</v>
+      </c>
+      <c r="G51">
+        <v>0.009093417179360597</v>
+      </c>
+      <c r="H51">
+        <v>0.07034088062223089</v>
+      </c>
+      <c r="I51">
+        <v>0.00279178984025286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1083378006842331</v>
+        <v>0.05309245369867124</v>
       </c>
       <c r="C53">
-        <v>0.1254660743868255</v>
+        <v>-0.1594087363477424</v>
       </c>
       <c r="D53">
-        <v>-0.003123566765330643</v>
+        <v>0.01974365610571736</v>
       </c>
       <c r="E53">
-        <v>0.04339498548018275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02533678908793153</v>
+      </c>
+      <c r="F53">
+        <v>-0.04625824498294874</v>
+      </c>
+      <c r="G53">
+        <v>0.009331502061937396</v>
+      </c>
+      <c r="H53">
+        <v>0.009078181084980508</v>
+      </c>
+      <c r="I53">
+        <v>0.01388956603655988</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.009742740100834282</v>
+        <v>0.01036753417212929</v>
       </c>
       <c r="C54">
-        <v>0.02283075213904512</v>
+        <v>-0.03954333357368527</v>
       </c>
       <c r="D54">
-        <v>0.08462007260538132</v>
+        <v>-0.07770844701335439</v>
       </c>
       <c r="E54">
-        <v>0.004661637631228589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.02193392240377749</v>
+      </c>
+      <c r="F54">
+        <v>0.0005448272679328771</v>
+      </c>
+      <c r="G54">
+        <v>0.02344732838365637</v>
+      </c>
+      <c r="H54">
+        <v>0.07231786494827183</v>
+      </c>
+      <c r="I54">
+        <v>0.04990984852282207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09333852446986166</v>
+        <v>0.03969610782321704</v>
       </c>
       <c r="C55">
-        <v>0.1075496903731248</v>
+        <v>-0.1312553789584417</v>
       </c>
       <c r="D55">
-        <v>0.006450635463658785</v>
+        <v>0.03429003725098177</v>
       </c>
       <c r="E55">
-        <v>0.002306765200078485</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.008932064536432367</v>
+      </c>
+      <c r="F55">
+        <v>-0.006994844263565845</v>
+      </c>
+      <c r="G55">
+        <v>0.003046409546706924</v>
+      </c>
+      <c r="H55">
+        <v>0.005090124475299775</v>
+      </c>
+      <c r="I55">
+        <v>-0.008636450475367485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1343601437597076</v>
+        <v>0.05432964510337788</v>
       </c>
       <c r="C56">
-        <v>0.1459253741094242</v>
+        <v>-0.1910233150335069</v>
       </c>
       <c r="D56">
-        <v>0.006812602696628737</v>
+        <v>0.03614272876951768</v>
       </c>
       <c r="E56">
-        <v>-0.005932755415942124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02548662036383404</v>
+      </c>
+      <c r="F56">
+        <v>-0.009747156596004385</v>
+      </c>
+      <c r="G56">
+        <v>-0.03500486186468641</v>
+      </c>
+      <c r="H56">
+        <v>0.03083338238266969</v>
+      </c>
+      <c r="I56">
+        <v>0.00224405957841032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01096664982205586</v>
+        <v>0.001999552019505817</v>
       </c>
       <c r="C58">
-        <v>0.01310757833861825</v>
+        <v>-0.05860953433672566</v>
       </c>
       <c r="D58">
-        <v>0.2166930954870271</v>
+        <v>-0.2849377957693423</v>
       </c>
       <c r="E58">
-        <v>0.1057460098909088</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02912034719108003</v>
+      </c>
+      <c r="F58">
+        <v>-0.1168949119678769</v>
+      </c>
+      <c r="G58">
+        <v>-0.1686847120169454</v>
+      </c>
+      <c r="H58">
+        <v>-0.004241755671901891</v>
+      </c>
+      <c r="I58">
+        <v>0.0484969805734199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1822188863206415</v>
+        <v>0.2538396429356219</v>
       </c>
       <c r="C59">
-        <v>-0.1434847813795097</v>
+        <v>0.05778797777499193</v>
       </c>
       <c r="D59">
-        <v>0.04149439692920451</v>
+        <v>-0.05182490839734583</v>
       </c>
       <c r="E59">
-        <v>0.02716424684588756</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02344348261692139</v>
+      </c>
+      <c r="F59">
+        <v>-0.02389461440813455</v>
+      </c>
+      <c r="G59">
+        <v>-0.01205967171738424</v>
+      </c>
+      <c r="H59">
+        <v>0.01619779900448077</v>
+      </c>
+      <c r="I59">
+        <v>-0.03094384797229931</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1809058183725679</v>
+        <v>0.148174248164057</v>
       </c>
       <c r="C60">
-        <v>0.0991232251568145</v>
+        <v>-0.1707879751839987</v>
       </c>
       <c r="D60">
-        <v>0.2295877298926719</v>
+        <v>-0.09665410018374614</v>
       </c>
       <c r="E60">
-        <v>-0.05730903026774938</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1470308902797955</v>
+      </c>
+      <c r="F60">
+        <v>0.189015323736784</v>
+      </c>
+      <c r="G60">
+        <v>0.1117539430737978</v>
+      </c>
+      <c r="H60">
+        <v>-0.2989908336178543</v>
+      </c>
+      <c r="I60">
+        <v>-0.1816105633910979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02475327540545191</v>
+        <v>0.01090188211847864</v>
       </c>
       <c r="C61">
-        <v>0.05437840739778396</v>
+        <v>-0.07600071996478598</v>
       </c>
       <c r="D61">
-        <v>0.08308546780908986</v>
+        <v>-0.07030563020936204</v>
       </c>
       <c r="E61">
-        <v>-0.006768360143290887</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03922678525882559</v>
+      </c>
+      <c r="F61">
+        <v>0.01879513367281652</v>
+      </c>
+      <c r="G61">
+        <v>0.06951666178050955</v>
+      </c>
+      <c r="H61">
+        <v>0.05513572560863539</v>
+      </c>
+      <c r="I61">
+        <v>0.02872445547477042</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.006986727250962959</v>
+        <v>0.008415650770788655</v>
       </c>
       <c r="C63">
-        <v>0.02441795076809908</v>
+        <v>-0.0381981554946431</v>
       </c>
       <c r="D63">
-        <v>0.09019999863030441</v>
+        <v>-0.06619556408988707</v>
       </c>
       <c r="E63">
-        <v>0.02668664722871883</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05944877204964487</v>
+      </c>
+      <c r="F63">
+        <v>-0.02206138366183194</v>
+      </c>
+      <c r="G63">
+        <v>0.0378962287152774</v>
+      </c>
+      <c r="H63">
+        <v>0.06134140267602992</v>
+      </c>
+      <c r="I63">
+        <v>0.03404172341142156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05665337421950951</v>
+        <v>0.01515937990882155</v>
       </c>
       <c r="C64">
-        <v>0.08715750673330688</v>
+        <v>-0.1036203088497388</v>
       </c>
       <c r="D64">
-        <v>0.01083416111040552</v>
+        <v>-0.006763475873053382</v>
       </c>
       <c r="E64">
-        <v>0.01581109833159538</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.021899344932389</v>
+      </c>
+      <c r="F64">
+        <v>-0.01270230597235922</v>
+      </c>
+      <c r="G64">
+        <v>0.0452374186381528</v>
+      </c>
+      <c r="H64">
+        <v>0.02463165043373795</v>
+      </c>
+      <c r="I64">
+        <v>0.04922824033539317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02437384807352689</v>
+        <v>0.0204812682290596</v>
       </c>
       <c r="C65">
-        <v>0.01602570294329757</v>
+        <v>-0.04440974158216916</v>
       </c>
       <c r="D65">
-        <v>0.1084637128386257</v>
+        <v>-0.1123441234644239</v>
       </c>
       <c r="E65">
-        <v>0.0200036543893893</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.05012814999120585</v>
+      </c>
+      <c r="F65">
+        <v>0.006446010930859764</v>
+      </c>
+      <c r="G65">
+        <v>0.03549706327513788</v>
+      </c>
+      <c r="H65">
+        <v>-0.02051689279155472</v>
+      </c>
+      <c r="I65">
+        <v>0.03585053516226646</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02157221103649608</v>
+        <v>0.0008341417602766571</v>
       </c>
       <c r="C66">
-        <v>0.06970441879848023</v>
+        <v>-0.09884578723044794</v>
       </c>
       <c r="D66">
-        <v>0.1199241203295856</v>
+        <v>-0.1141684893305001</v>
       </c>
       <c r="E66">
-        <v>-0.006751585165211637</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04620720423912789</v>
+      </c>
+      <c r="F66">
+        <v>0.01453533645618963</v>
+      </c>
+      <c r="G66">
+        <v>0.03296129467378536</v>
+      </c>
+      <c r="H66">
+        <v>0.0613532853572716</v>
+      </c>
+      <c r="I66">
+        <v>0.04140238976921122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02362245123825401</v>
+        <v>0.02032431417287804</v>
       </c>
       <c r="C67">
-        <v>0.02097224952615664</v>
+        <v>-0.03717338760890999</v>
       </c>
       <c r="D67">
-        <v>0.03965302907771522</v>
+        <v>-0.04014847955100134</v>
       </c>
       <c r="E67">
-        <v>-0.02537993831900718</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01353196855248359</v>
+      </c>
+      <c r="F67">
+        <v>0.03130350877008458</v>
+      </c>
+      <c r="G67">
+        <v>0.01797209743458711</v>
+      </c>
+      <c r="H67">
+        <v>0.05324123459778472</v>
+      </c>
+      <c r="I67">
+        <v>0.04262166908675109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2049688360808356</v>
+        <v>0.2774467444922608</v>
       </c>
       <c r="C68">
-        <v>-0.1538692969395603</v>
+        <v>0.06321806672401704</v>
       </c>
       <c r="D68">
-        <v>0.03181334368472342</v>
+        <v>-0.02771279561587444</v>
       </c>
       <c r="E68">
-        <v>0.02116631150031525</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.000999543250376647</v>
+      </c>
+      <c r="F68">
+        <v>-0.02500070470051014</v>
+      </c>
+      <c r="G68">
+        <v>-0.08069190889875724</v>
+      </c>
+      <c r="H68">
+        <v>-0.0141706585860511</v>
+      </c>
+      <c r="I68">
+        <v>-0.009819348388465534</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05310256692341359</v>
+        <v>0.01455688390630251</v>
       </c>
       <c r="C69">
-        <v>0.1174521085327102</v>
+        <v>-0.1179191480355372</v>
       </c>
       <c r="D69">
-        <v>0.07244454332715509</v>
+        <v>-0.02793152332232773</v>
       </c>
       <c r="E69">
-        <v>0.008615563861082944</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0121452104198199</v>
+      </c>
+      <c r="F69">
+        <v>0.01178389881877328</v>
+      </c>
+      <c r="G69">
+        <v>0.03887012113590306</v>
+      </c>
+      <c r="H69">
+        <v>0.01752483842509874</v>
+      </c>
+      <c r="I69">
+        <v>0.008912782715070349</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2135010897476857</v>
+        <v>0.276447502458866</v>
       </c>
       <c r="C71">
-        <v>-0.1774456111163389</v>
+        <v>0.07769451842065729</v>
       </c>
       <c r="D71">
-        <v>0.01929657273067932</v>
+        <v>-0.01678754014050729</v>
       </c>
       <c r="E71">
-        <v>0.009949679135990434</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0005878020542729676</v>
+      </c>
+      <c r="F71">
+        <v>-0.01502087129292379</v>
+      </c>
+      <c r="G71">
+        <v>-0.02937640136873473</v>
+      </c>
+      <c r="H71">
+        <v>0.0114781394063554</v>
+      </c>
+      <c r="I71">
+        <v>0.007416430746088833</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1028676943055673</v>
+        <v>0.05611933216597683</v>
       </c>
       <c r="C72">
-        <v>0.07477057521593208</v>
+        <v>-0.1275550478958923</v>
       </c>
       <c r="D72">
-        <v>0.121632290747932</v>
+        <v>-0.0624981576119365</v>
       </c>
       <c r="E72">
-        <v>-0.006218628332234192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.07114327053826544</v>
+      </c>
+      <c r="F72">
+        <v>0.02821055395111451</v>
+      </c>
+      <c r="G72">
+        <v>0.06261869890829737</v>
+      </c>
+      <c r="H72">
+        <v>0.01643831173207365</v>
+      </c>
+      <c r="I72">
+        <v>0.02911684089394765</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1698394509992137</v>
+        <v>0.1379605779626704</v>
       </c>
       <c r="C73">
-        <v>0.06735220175441989</v>
+        <v>-0.1488147602964846</v>
       </c>
       <c r="D73">
-        <v>0.280227902462015</v>
+        <v>-0.1018061191767003</v>
       </c>
       <c r="E73">
-        <v>-0.106446840345039</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2626377647149562</v>
+      </c>
+      <c r="F73">
+        <v>0.2718831327954797</v>
+      </c>
+      <c r="G73">
+        <v>0.2803781230553032</v>
+      </c>
+      <c r="H73">
+        <v>-0.3448901681278275</v>
+      </c>
+      <c r="I73">
+        <v>-0.1150082176823518</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1066192602473383</v>
+        <v>0.04960423919304122</v>
       </c>
       <c r="C74">
-        <v>0.1150539337955114</v>
+        <v>-0.1443454006504289</v>
       </c>
       <c r="D74">
-        <v>-0.02621045548024835</v>
+        <v>0.04541438214139339</v>
       </c>
       <c r="E74">
-        <v>0.0346634451289424</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.008895049196988624</v>
+      </c>
+      <c r="F74">
+        <v>-0.03442183946347654</v>
+      </c>
+      <c r="G74">
+        <v>-0.002837550192257908</v>
+      </c>
+      <c r="H74">
+        <v>-0.02126685534116166</v>
+      </c>
+      <c r="I74">
+        <v>-0.01188810203424606</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2301985919985623</v>
+        <v>0.09891180071483513</v>
       </c>
       <c r="C75">
-        <v>0.2002950039133946</v>
+        <v>-0.2695906795682253</v>
       </c>
       <c r="D75">
-        <v>-0.09630883472285851</v>
+        <v>0.1323027050284023</v>
       </c>
       <c r="E75">
-        <v>-0.0672679957099947</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09008803743815449</v>
+      </c>
+      <c r="F75">
+        <v>0.03908365175076468</v>
+      </c>
+      <c r="G75">
+        <v>-0.08191903246167406</v>
+      </c>
+      <c r="H75">
+        <v>0.05281064688413791</v>
+      </c>
+      <c r="I75">
+        <v>0.0646004314793604</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1368224096220199</v>
+        <v>0.05652795786959587</v>
       </c>
       <c r="C76">
-        <v>0.1386482103979296</v>
+        <v>-0.1807161617164097</v>
       </c>
       <c r="D76">
-        <v>-0.00109026328780674</v>
+        <v>0.04902606868275579</v>
       </c>
       <c r="E76">
-        <v>-0.01156208626311342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.01794794360781114</v>
+      </c>
+      <c r="F76">
+        <v>0.000961947545329388</v>
+      </c>
+      <c r="G76">
+        <v>-0.02177990824506533</v>
+      </c>
+      <c r="H76">
+        <v>0.04326791341343406</v>
+      </c>
+      <c r="I76">
+        <v>0.01864133908483134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01849403241603356</v>
+        <v>-0.0002490529329228109</v>
       </c>
       <c r="C77">
-        <v>0.07035041414553976</v>
+        <v>-0.1096531391124624</v>
       </c>
       <c r="D77">
-        <v>-0.02397059312239557</v>
+        <v>-0.3245636045206763</v>
       </c>
       <c r="E77">
-        <v>0.003459272321678456</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8538312667493164</v>
+      </c>
+      <c r="F77">
+        <v>0.177594202434132</v>
+      </c>
+      <c r="G77">
+        <v>0.1129749230256928</v>
+      </c>
+      <c r="H77">
+        <v>-0.2050345722195935</v>
+      </c>
+      <c r="I77">
+        <v>-0.02013165065505065</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02931003267513457</v>
+        <v>0.01676353258535128</v>
       </c>
       <c r="C78">
-        <v>0.07179893910034593</v>
+        <v>-0.09250719233708568</v>
       </c>
       <c r="D78">
-        <v>0.1493205643925313</v>
+        <v>-0.1125002909246331</v>
       </c>
       <c r="E78">
-        <v>0.05455714019735822</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06517538438000102</v>
+      </c>
+      <c r="F78">
+        <v>-0.04221446941237911</v>
+      </c>
+      <c r="G78">
+        <v>-0.01927432166346585</v>
+      </c>
+      <c r="H78">
+        <v>0.05683211268638388</v>
+      </c>
+      <c r="I78">
+        <v>-0.03020429045708171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1007578974254136</v>
+        <v>0.0360490786926916</v>
       </c>
       <c r="C79">
-        <v>0.1863270523580883</v>
+        <v>-0.1998946639975171</v>
       </c>
       <c r="D79">
-        <v>-0.2278946018221266</v>
+        <v>0.09078642225624269</v>
       </c>
       <c r="E79">
-        <v>0.8777420215732721</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05727183969034244</v>
+      </c>
+      <c r="F79">
+        <v>-0.8211064145864447</v>
+      </c>
+      <c r="G79">
+        <v>0.1860647739370539</v>
+      </c>
+      <c r="H79">
+        <v>-0.3628730400594728</v>
+      </c>
+      <c r="I79">
+        <v>-0.05486087620583716</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.003192240350844438</v>
+        <v>0.00413322472700863</v>
       </c>
       <c r="C80">
-        <v>0.04469671290615666</v>
+        <v>-0.04387215946393611</v>
       </c>
       <c r="D80">
-        <v>0.05027036283840867</v>
+        <v>-0.03879505346929234</v>
       </c>
       <c r="E80">
-        <v>0.00053839821796447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04696450946316819</v>
+      </c>
+      <c r="F80">
+        <v>0.003025567712077364</v>
+      </c>
+      <c r="G80">
+        <v>0.01822582966185144</v>
+      </c>
+      <c r="H80">
+        <v>0.04052700418229851</v>
+      </c>
+      <c r="I80">
+        <v>-0.08371706684441638</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1177849427737576</v>
+        <v>0.04002391832490449</v>
       </c>
       <c r="C81">
-        <v>0.1362995734494082</v>
+        <v>-0.1665967421632642</v>
       </c>
       <c r="D81">
-        <v>-0.08462699322764942</v>
+        <v>0.08362304194675052</v>
       </c>
       <c r="E81">
-        <v>0.01919843534509345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04507985229491165</v>
+      </c>
+      <c r="F81">
+        <v>-0.05472520889626973</v>
+      </c>
+      <c r="G81">
+        <v>-0.02808601347895802</v>
+      </c>
+      <c r="H81">
+        <v>0.08678830911733293</v>
+      </c>
+      <c r="I81">
+        <v>0.005576306666924285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.24706243765395</v>
+        <v>0.08548167981386183</v>
       </c>
       <c r="C82">
-        <v>0.2951511178429483</v>
+        <v>-0.315847075341668</v>
       </c>
       <c r="D82">
-        <v>-0.1883691852879071</v>
+        <v>0.2426405792457754</v>
       </c>
       <c r="E82">
-        <v>-0.1997533606965744</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06112359287128989</v>
+      </c>
+      <c r="F82">
+        <v>0.1266388163558462</v>
+      </c>
+      <c r="G82">
+        <v>-0.04467451655482543</v>
+      </c>
+      <c r="H82">
+        <v>0.1359723822442869</v>
+      </c>
+      <c r="I82">
+        <v>0.01013226402029232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.01061411827883393</v>
+        <v>-0.01431541022910384</v>
       </c>
       <c r="C83">
-        <v>0.0524043419642387</v>
+        <v>-0.01982156454455684</v>
       </c>
       <c r="D83">
-        <v>0.002658476071836033</v>
+        <v>-0.02126994801916739</v>
       </c>
       <c r="E83">
-        <v>0.02960277061513099</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08790736135790554</v>
+      </c>
+      <c r="F83">
+        <v>-0.06880365771846879</v>
+      </c>
+      <c r="G83">
+        <v>0.006414644845359436</v>
+      </c>
+      <c r="H83">
+        <v>0.3047299190186227</v>
+      </c>
+      <c r="I83">
+        <v>-0.8809975725398352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0003500500479365555</v>
+        <v>-0.004289744850370369</v>
       </c>
       <c r="C84">
-        <v>-0.001751487516415478</v>
+        <v>-0.01701177031184886</v>
       </c>
       <c r="D84">
-        <v>0.0005391303547622045</v>
+        <v>-0.04140783132751729</v>
       </c>
       <c r="E84">
-        <v>-0.002206546619075015</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.001080583510579066</v>
+      </c>
+      <c r="F84">
+        <v>-0.02569741785281555</v>
+      </c>
+      <c r="G84">
+        <v>-0.03190543791481181</v>
+      </c>
+      <c r="H84">
+        <v>0.05004696198498685</v>
+      </c>
+      <c r="I84">
+        <v>0.06701883262146757</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1405847341774416</v>
+        <v>0.05428579883497421</v>
       </c>
       <c r="C85">
-        <v>0.1417153744773398</v>
+        <v>-0.1825698212021458</v>
       </c>
       <c r="D85">
-        <v>-0.05793811832559268</v>
+        <v>0.1035176139803449</v>
       </c>
       <c r="E85">
-        <v>0.0363914753830263</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.001553655403245777</v>
+      </c>
+      <c r="F85">
+        <v>-0.06571880209420018</v>
+      </c>
+      <c r="G85">
+        <v>-0.02682544139131671</v>
+      </c>
+      <c r="H85">
+        <v>-0.00206362378983096</v>
+      </c>
+      <c r="I85">
+        <v>0.009817435949441337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01772769788615162</v>
+        <v>0.01474347333361734</v>
       </c>
       <c r="C86">
-        <v>0.01086013473539357</v>
+        <v>-0.04056044005450397</v>
       </c>
       <c r="D86">
-        <v>0.09624142224783777</v>
+        <v>-0.1136674498306659</v>
       </c>
       <c r="E86">
-        <v>0.0218377375686895</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02146774147881596</v>
+      </c>
+      <c r="F86">
+        <v>-0.01457256527425991</v>
+      </c>
+      <c r="G86">
+        <v>0.01897058917042209</v>
+      </c>
+      <c r="H86">
+        <v>-0.01606333313053228</v>
+      </c>
+      <c r="I86">
+        <v>0.0231277024222806</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02111161526705837</v>
+        <v>0.01138154364371084</v>
       </c>
       <c r="C87">
-        <v>0.02868592773123459</v>
+        <v>-0.06368085637809487</v>
       </c>
       <c r="D87">
-        <v>0.1249771658927383</v>
+        <v>-0.1370984921552644</v>
       </c>
       <c r="E87">
-        <v>0.04673168096690648</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01426842948593183</v>
+      </c>
+      <c r="F87">
+        <v>-0.03578422609386531</v>
+      </c>
+      <c r="G87">
+        <v>-0.02123905632051809</v>
+      </c>
+      <c r="H87">
+        <v>0.08838284683699789</v>
+      </c>
+      <c r="I87">
+        <v>-0.0007154418623992692</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05126579517256855</v>
+        <v>0.0326213816726933</v>
       </c>
       <c r="C88">
-        <v>0.04365521150669378</v>
+        <v>-0.06913666627142395</v>
       </c>
       <c r="D88">
-        <v>0.01829483072328123</v>
+        <v>-0.01830720157783911</v>
       </c>
       <c r="E88">
-        <v>0.02820084386754822</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02708688590192822</v>
+      </c>
+      <c r="F88">
+        <v>-0.01998393515521217</v>
+      </c>
+      <c r="G88">
+        <v>0.02036711363986188</v>
+      </c>
+      <c r="H88">
+        <v>0.00251208659277866</v>
+      </c>
+      <c r="I88">
+        <v>0.02335131678788966</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3218267154251721</v>
+        <v>0.4086331530089936</v>
       </c>
       <c r="C89">
-        <v>-0.3218626011224619</v>
+        <v>0.1500669783017205</v>
       </c>
       <c r="D89">
-        <v>0.01092418372762957</v>
+        <v>-0.03489313624634336</v>
       </c>
       <c r="E89">
-        <v>0.08004766410044754</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.0461293056958964</v>
+      </c>
+      <c r="F89">
+        <v>-0.05154181216465163</v>
+      </c>
+      <c r="G89">
+        <v>0.03603527450683899</v>
+      </c>
+      <c r="H89">
+        <v>0.1540759408828706</v>
+      </c>
+      <c r="I89">
+        <v>-0.05124208936463509</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2583323921622837</v>
+        <v>0.3212337443360369</v>
       </c>
       <c r="C90">
-        <v>-0.2384504372406837</v>
+        <v>0.1018887765312542</v>
       </c>
       <c r="D90">
-        <v>0.053332156642821</v>
+        <v>-0.03380158762643078</v>
       </c>
       <c r="E90">
-        <v>-0.0100816483915675</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.007959415043921005</v>
+      </c>
+      <c r="F90">
+        <v>0.009627646011122544</v>
+      </c>
+      <c r="G90">
+        <v>-0.06005165635087819</v>
+      </c>
+      <c r="H90">
+        <v>0.03236329383757142</v>
+      </c>
+      <c r="I90">
+        <v>-0.01761327916347104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1534752163138911</v>
+        <v>0.06461595165938652</v>
       </c>
       <c r="C91">
-        <v>0.1872071389417938</v>
+        <v>-0.2067789716921453</v>
       </c>
       <c r="D91">
-        <v>-0.1022802577526759</v>
+        <v>0.1109214499684902</v>
       </c>
       <c r="E91">
-        <v>0.05591147642182508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05804640401614444</v>
+      </c>
+      <c r="F91">
+        <v>-0.06216315556455065</v>
+      </c>
+      <c r="G91">
+        <v>-0.01037487382230741</v>
+      </c>
+      <c r="H91">
+        <v>-0.000336198202290736</v>
+      </c>
+      <c r="I91">
+        <v>-0.02865321497293282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2430696463615947</v>
+        <v>0.3413084145951074</v>
       </c>
       <c r="C92">
-        <v>-0.2620226547700061</v>
+        <v>0.1362843857037771</v>
       </c>
       <c r="D92">
-        <v>-0.06415102278808299</v>
+        <v>-0.009716760048194835</v>
       </c>
       <c r="E92">
-        <v>0.01600100929594352</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06786780369240847</v>
+      </c>
+      <c r="F92">
+        <v>-0.0351326088917094</v>
+      </c>
+      <c r="G92">
+        <v>-0.02057139698629748</v>
+      </c>
+      <c r="H92">
+        <v>0.01836890921426546</v>
+      </c>
+      <c r="I92">
+        <v>0.1409666924445182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2848924879430759</v>
+        <v>0.3366297804944742</v>
       </c>
       <c r="C93">
-        <v>-0.2471638389185014</v>
+        <v>0.1076118898933913</v>
       </c>
       <c r="D93">
-        <v>0.006065174070940731</v>
+        <v>0.01828443544164178</v>
       </c>
       <c r="E93">
-        <v>0.0150673890275015</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02289809523054226</v>
+      </c>
+      <c r="F93">
+        <v>-0.009734984972693778</v>
+      </c>
+      <c r="G93">
+        <v>0.004995213980125671</v>
+      </c>
+      <c r="H93">
+        <v>-0.03732713008242226</v>
+      </c>
+      <c r="I93">
+        <v>0.02621844903577848</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2904963267940554</v>
+        <v>0.1213773534011327</v>
       </c>
       <c r="C94">
-        <v>0.2716432692104335</v>
+        <v>-0.3462235131547733</v>
       </c>
       <c r="D94">
-        <v>-0.2853325236142344</v>
+        <v>0.3630594959918421</v>
       </c>
       <c r="E94">
-        <v>-0.24913677324446</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.05461547778664069</v>
+      </c>
+      <c r="F94">
+        <v>0.1320726678750811</v>
+      </c>
+      <c r="G94">
+        <v>-0.2970210637982579</v>
+      </c>
+      <c r="H94">
+        <v>0.1049645699931428</v>
+      </c>
+      <c r="I94">
+        <v>0.0444658980425177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01221724991153244</v>
+        <v>0.01290212146219103</v>
       </c>
       <c r="C95">
-        <v>0.04351589958192914</v>
+        <v>-0.06694199070221142</v>
       </c>
       <c r="D95">
-        <v>-0.02880031112529696</v>
+        <v>-0.08621905047824516</v>
       </c>
       <c r="E95">
-        <v>-0.02111377864363094</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1525275461079413</v>
+      </c>
+      <c r="F95">
+        <v>0.04415684129428459</v>
+      </c>
+      <c r="G95">
+        <v>0.2169600166153077</v>
+      </c>
+      <c r="H95">
+        <v>0.2176021924338467</v>
+      </c>
+      <c r="I95">
+        <v>0.1917441623868638</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001698357215447692</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0009972393961129706</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0008980327007611262</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003558531487239875</v>
+      </c>
+      <c r="F97">
+        <v>-0.0004050570507817314</v>
+      </c>
+      <c r="G97">
+        <v>0.000231110190350923</v>
+      </c>
+      <c r="H97">
+        <v>0.002611192366907296</v>
+      </c>
+      <c r="I97">
+        <v>0.006507308613207582</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1480049956564247</v>
+        <v>0.1206355941403057</v>
       </c>
       <c r="C98">
-        <v>0.08685140796434264</v>
+        <v>-0.1527768513259276</v>
       </c>
       <c r="D98">
-        <v>0.1852844963390055</v>
+        <v>-0.07049473587771499</v>
       </c>
       <c r="E98">
-        <v>-0.09717653321243026</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1810976750167898</v>
+      </c>
+      <c r="F98">
+        <v>0.2183562167166119</v>
+      </c>
+      <c r="G98">
+        <v>0.1930282514531677</v>
+      </c>
+      <c r="H98">
+        <v>-0.284385924691144</v>
+      </c>
+      <c r="I98">
+        <v>-0.1448881139214272</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.00123723324507084</v>
+        <v>0.001734386095911318</v>
       </c>
       <c r="C101">
-        <v>0.0219765363941397</v>
+        <v>-0.03827636036367075</v>
       </c>
       <c r="D101">
-        <v>0.0817875642432155</v>
+        <v>-0.0964882739488739</v>
       </c>
       <c r="E101">
-        <v>0.02726401411893008</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.06338311172371844</v>
+      </c>
+      <c r="F101">
+        <v>-0.02306763814800897</v>
+      </c>
+      <c r="G101">
+        <v>0.09230573033460049</v>
+      </c>
+      <c r="H101">
+        <v>0.147548955888396</v>
+      </c>
+      <c r="I101">
+        <v>0.0220668353117344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1045923205181491</v>
+        <v>0.02681142826476245</v>
       </c>
       <c r="C102">
-        <v>0.1577138692360392</v>
+        <v>-0.1465011387702871</v>
       </c>
       <c r="D102">
-        <v>-0.05437648556208886</v>
+        <v>0.09986756880512851</v>
       </c>
       <c r="E102">
-        <v>-0.08428924622027298</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03632103736979519</v>
+      </c>
+      <c r="F102">
+        <v>0.07337263278170984</v>
+      </c>
+      <c r="G102">
+        <v>0.0205420394791927</v>
+      </c>
+      <c r="H102">
+        <v>0.02413341422265297</v>
+      </c>
+      <c r="I102">
+        <v>-0.0191874650121258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
